--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-10.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-10.xlsx
@@ -758,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
@@ -1226,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
